--- a/Avantis Mapping/SPARQL_supercategory.xlsx
+++ b/Avantis Mapping/SPARQL_supercategory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B486F81D-4B35-4F7D-B3C3-6014B6031C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F8048-8BA9-4729-B2EB-9A72BCCE4A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
@@ -36,189 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
   <si>
     <t>TWONTO</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_duct_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#cable_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_gauge_or_display</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrumentation</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#electrical_panel_or_cabinet</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#clarifier</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#crane</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#centrifuge</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_handler_unit</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#elevator</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#level_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#weight_scale</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#UV_disinfection_assembly</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#transformer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#fixed_gas_detector</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#strainer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#valve</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_scrubber</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#grinder_or_comminutor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#computer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_transmitter</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#5kV_electrical_cabinet</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pressure_transmitter</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#screen</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#battery_charger</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#mixer_or_agitator</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#UPS</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#flow_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#heater</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#generator-set</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#well</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#compactor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#blower</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pump_-_without_drive</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#server_appliance</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#motor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#process_control_panel</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#battery</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#storage_tank</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#compressor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_damper</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#conveyor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#large_stationary_tool</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#level_transmitter</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pressure_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#position_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#temperature_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#speed_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#vibration_sensor_element</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#lighting_unit</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#flocculation_tank</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#PLC</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#lifting_equipment_hoist</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#forklift</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pressure_vessel</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#actuator</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#passenger_vehicles</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#screw_conveyor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#incinerator</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#dryer</t>
   </si>
   <si>
     <t>Lagoon</t>
@@ -234,16 +54,10 @@
 Ultraviolet Disinfection,Chamber</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#chemical_or_concentration_sensor_element</t>
-  </si>
-  <si>
     <t>Sensor,Gas</t>
   </si>
   <si>
     <t>Vessel,Pressure,Surge</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#waste_gas_burner</t>
   </si>
   <si>
     <t>Burner,Waste Gas</t>
@@ -315,9 +129,6 @@
     <t>Meter</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#pond</t>
-  </si>
-  <si>
     <t>Switch,Vibration-High_x000D_
 Switch,Vibration-Low</t>
   </si>
@@ -336,13 +147,7 @@
     <t>Charger,Battery</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#system_of_integrated_discrete_assets</t>
-  </si>
-  <si>
     <t>System,Ultraviolet Disinfection</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#load_break_disconnect_switch</t>
   </si>
   <si>
     <t>fvyuLoad Break Switch</t>
@@ -356,9 +161,6 @@
 Meter,Flow,Rotometer</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#portable_gas_detector</t>
-  </si>
-  <si>
     <t>Atmosphere Monitoring Device,Portable_x000D_
 Atmosphere Monitoring Device,Portable,Mercury_x000D_
 Atmosphere Monitoring Device,Portable,Oxygen/Toxic/CH4/LEL/CL/SO2</t>
@@ -367,9 +169,6 @@
     <t>Flocculator,Paddle Wheel_x000D_
 Flocculator,Turbine_x000D_
 Flocculator,Walking Beam</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pump_set_-_with_drive</t>
   </si>
   <si>
     <t>Pump,Diaphragm_x000D_
@@ -391,9 +190,6 @@
 Controller,Pressure_x000D_
 Controller,Temperature_x000D_
 Controller,VFD</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#PPE</t>
   </si>
   <si>
     <t>PPE</t>
@@ -448,9 +244,6 @@
 Compressor,Stationary,Piston_x000D_
 Compressor,Stationary,Screw_x000D_
 Compressor,Stationary,Sliding Vane</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#roof</t>
   </si>
   <si>
     <t>Roof Type_x000D_
@@ -549,9 +342,6 @@
 Fan,Centrifugal</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#chemical_storage_tank</t>
-  </si>
-  <si>
     <t>Tank,Alum</t>
   </si>
   <si>
@@ -612,9 +402,6 @@
 Mixer,Venturi</t>
   </si>
   <si>
-    <t>http://www.toronto.ca/TWONTO#chemical_or_concentration_analyzer</t>
-  </si>
-  <si>
     <t>Analyzer</t>
   </si>
   <si>
@@ -636,9 +423,6 @@
 Compactor,Stationary_x000D_
 Compactor,Stationary,Paper_x000D_
 Transfer Compactor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#hot_work_equipment</t>
   </si>
   <si>
     <t>Welding Equipment_x000D_
@@ -680,6 +464,219 @@
   </si>
   <si>
     <t>Super_Category</t>
+  </si>
+  <si>
+    <t>level_transmitter</t>
+  </si>
+  <si>
+    <t>UV_disinfection_assembly</t>
+  </si>
+  <si>
+    <t>chemical_or_concentration_sensor_element</t>
+  </si>
+  <si>
+    <t>pressure_vessel</t>
+  </si>
+  <si>
+    <t>waste_gas_burner</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>pump_-_without_drive</t>
+  </si>
+  <si>
+    <t>centrifuge</t>
+  </si>
+  <si>
+    <t>clarifier</t>
+  </si>
+  <si>
+    <t>instrumentation</t>
+  </si>
+  <si>
+    <t>pond</t>
+  </si>
+  <si>
+    <t>vibration_sensor_element</t>
+  </si>
+  <si>
+    <t>grinder_or_comminutor</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>flow_switch</t>
+  </si>
+  <si>
+    <t>battery_charger</t>
+  </si>
+  <si>
+    <t>system_of_integrated_discrete_assets</t>
+  </si>
+  <si>
+    <t>load_break_disconnect_switch</t>
+  </si>
+  <si>
+    <t>air_handler_unit</t>
+  </si>
+  <si>
+    <t>instrument_gauge_or_display</t>
+  </si>
+  <si>
+    <t>portable_gas_detector</t>
+  </si>
+  <si>
+    <t>flocculation_tank</t>
+  </si>
+  <si>
+    <t>pump_set_-_with_drive</t>
+  </si>
+  <si>
+    <t>large_stationary_tool</t>
+  </si>
+  <si>
+    <t>air_duct_segment</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>level_switch</t>
+  </si>
+  <si>
+    <t>screw_conveyor</t>
+  </si>
+  <si>
+    <t>electrical_panel_or_cabinet</t>
+  </si>
+  <si>
+    <t>actuator</t>
+  </si>
+  <si>
+    <t>pressure_transmitter</t>
+  </si>
+  <si>
+    <t>pressure_switch</t>
+  </si>
+  <si>
+    <t>speed_switch</t>
+  </si>
+  <si>
+    <t>compressor</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>air_scrubber</t>
+  </si>
+  <si>
+    <t>crane</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>process_control_panel</t>
+  </si>
+  <si>
+    <t>passenger_vehicles</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>dryer</t>
+  </si>
+  <si>
+    <t>strainer</t>
+  </si>
+  <si>
+    <t>generator-set</t>
+  </si>
+  <si>
+    <t>conveyor</t>
+  </si>
+  <si>
+    <t>air_damper</t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
+    <t>server_appliance</t>
+  </si>
+  <si>
+    <t>blower</t>
+  </si>
+  <si>
+    <t>chemical_storage_tank</t>
+  </si>
+  <si>
+    <t>forklift</t>
+  </si>
+  <si>
+    <t>weight_scale</t>
+  </si>
+  <si>
+    <t>lighting_unit</t>
+  </si>
+  <si>
+    <t>instrument_transmitter</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>temperature_switch</t>
+  </si>
+  <si>
+    <t>position_switch</t>
+  </si>
+  <si>
+    <t>mixer_or_agitator</t>
+  </si>
+  <si>
+    <t>chemical_or_concentration_analyzer</t>
+  </si>
+  <si>
+    <t>cable_segment</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>storage_tank</t>
+  </si>
+  <si>
+    <t>incinerator</t>
+  </si>
+  <si>
+    <t>compactor</t>
+  </si>
+  <si>
+    <t>hot_work_equipment</t>
+  </si>
+  <si>
+    <t>fixed_gas_detector</t>
+  </si>
+  <si>
+    <t>5kV_electrical_cabinet</t>
+  </si>
+  <si>
+    <t>lifting_equipment_hoist</t>
+  </si>
+  <si>
+    <t>motor</t>
   </si>
 </sst>
 </file>
@@ -1104,9 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799550E-49B1-4512-9CC1-86876BA1337E}">
   <dimension ref="A2:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1119,599 +1114,599 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>94</v>
       </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
